--- a/source/test.xlsx
+++ b/source/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">rootname2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <dimension ref="D1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +351,7 @@
   <dimension ref="D1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -417,8 +420,8 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
@@ -435,7 +438,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
@@ -451,8 +454,8 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
+      <c r="E8" s="4" t="n">
+        <v>10.99</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>

--- a/source/test.xlsx
+++ b/source/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t xml:space="preserve">ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[root]の位置は移動可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[END]は行、列の終端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*の無い行は出力されない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[paramtype][paramname]は[root]の下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルート名は[root]の右</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[paramtype]はstring / int / floatの３つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[paramtype]に-を使用した場合はコメント列になる</t>
   </si>
   <si>
     <t xml:space="preserve">rootname2</t>
@@ -119,12 +140,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,15 +208,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,15 +249,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D1:I9"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="12.88"/>
   </cols>
   <sheetData>
@@ -242,7 +285,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -257,12 +300,12 @@
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -288,10 +331,10 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -303,10 +346,10 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="7" t="n">
         <v>12.34</v>
       </c>
     </row>
@@ -320,16 +363,51 @@
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="7" t="n">
         <v>9999.11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -350,8 +428,8 @@
   </sheetPr>
   <dimension ref="D1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,11 +449,11 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -426,10 +504,10 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>3.21</v>
       </c>
     </row>
@@ -438,15 +516,15 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="7" t="n">
         <v>43.21</v>
       </c>
     </row>
@@ -460,10 +538,10 @@
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="7" t="n">
         <v>11.99</v>
       </c>
     </row>
